--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -80,6 +80,13 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.消息中心默认Tab接口的开发与调测
+2.与用户中心联调</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -103,8 +110,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +129,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -124,54 +136,198 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +336,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,18 +561,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,6 +850,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -272,19 +868,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,384 +1212,393 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="14">
+        <v>20180115</v>
+      </c>
+      <c r="F11" s="14">
+        <v>20180119</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,9 +95,20 @@
     <t>曾昌林</t>
   </si>
   <si>
+    <t>新春营销活动配合H5测试和验收</t>
+  </si>
+  <si>
     <t>何娟</t>
   </si>
   <si>
+    <t>模板接口开发测试和验收，整理交接测试数据文档
+调试程序、修改代码bug
+后台管理系统配置活动操作说明文档</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
     <t>袁常鑫</t>
   </si>
   <si>
@@ -105,17 +116,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>新春营销活动配合H5测试和验收</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,38 +169,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +327,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,18 +546,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,12 +835,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -294,88 +847,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,7 +918,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -665,397 +1191,406 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>20180115</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>20180119</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>20180122</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>20180126</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
       <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\github\weekReport\2018周报\20180126周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -69,7 +64,16 @@
     <t>陆晨曦</t>
   </si>
   <si>
+    <t xml:space="preserve"> 歌单操作上报接口开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>赵小平</t>
+  </si>
+  <si>
+    <t>使用 spring session + redis 实现 session 共享、给 TSG 提供特定的歌单、歌曲、便签全量文件</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -89,9 +93,6 @@
   <si>
     <t>1.消息中心默认Tab接口的开发与调测
 2.与用户中心联调</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -117,31 +118,30 @@
     <t>袁常鑫</t>
   </si>
   <si>
+    <t>1.fluentd用做日志中间件学习使用模拟部署分析
+2.vuejs学习及管控平台相关页面的观看</t>
+  </si>
+  <si>
     <t>贾洋</t>
   </si>
   <si>
+    <t>bug修改，页面优化</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>bug修改，页面优化</t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 歌单操作上报接口开发</t>
-  </si>
-  <si>
-    <t>使用 spring session + redis 实现 session 共享、给 TSG 提供特定的歌单、歌曲、便签全量文件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +153,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -161,54 +160,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +347,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -256,18 +572,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,26 +873,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,429 +1217,436 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180115</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180119</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20180115</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20180119</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180115</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180119</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20180115</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20180119</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180115</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180119</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\2018周报\20180126周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -84,6 +79,10 @@
     <t>陈毅昌</t>
   </si>
   <si>
+    <t>1.榜单bug修复
+2.全局MV付费修复</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -94,6 +93,17 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.消息中心默认Tab接口的开发与调测
+2.与用户中心联调</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.mv加载速度问题处理
+</t>
   </si>
   <si>
     <t>曾昌林</t>
@@ -127,39 +137,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>刘韬</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李春荣</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.消息中心默认Tab接口的开发与调测
-2.与用户中心联调</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.mv加载速度问题处理
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,53 +191,174 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +367,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,18 +592,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +881,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -348,42 +909,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -670,444 +1253,453 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180115</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180119</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180115</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180119</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6">
+        <v>20180115</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20180119</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>20180115</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>20180119</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17">
+        <v>20180122</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="20">
-        <v>20180122</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\2018周报\20180126周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,6 +90,11 @@
   </si>
   <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t>1.http接口接口调试
+2.配合ios线上处理活动、k歌屏蔽
+3.Http接口调用栏目转换修改</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -141,20 +141,27 @@
     <t>bug修改，页面优化</t>
   </si>
   <si>
+    <t>胡阳</t>
+  </si>
+  <si>
+    <t>1.修改页面模版（vip付费标识）
+2.配合联调</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.http接口接口调试
-2.配合ios线上处理活动、k歌屏蔽
-3.Http接口调用栏目转换修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,20 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,29 +236,122 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +360,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -287,18 +585,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,22 +874,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -353,29 +884,64 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -662,458 +1228,482 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180115</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180119</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180115</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180119</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20180115</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20180119</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="51.75" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20180115</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20180119</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180115</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180119</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14">
+        <v>20180122</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>20180115</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180119</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E17" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15">
-        <v>20180122</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="21"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -55,19 +55,19 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>白金会员订购需求开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
-    <t>凌河源</t>
-  </si>
-  <si>
     <t>陆晨曦</t>
   </si>
   <si>
     <t xml:space="preserve"> 歌单操作上报接口开发</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>赵小平</t>
@@ -202,6 +202,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,7 +270,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,63 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,6 +331,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -297,61 +350,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,13 +366,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +486,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,145 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,30 +583,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -630,6 +600,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,27 +677,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,143 +695,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -874,7 +868,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1292,10 +1285,18 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1305,13 +1306,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20180126</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -1323,17 +1328,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" ht="17.25" spans="1:8">
+      <c r="E4" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1341,22 +1354,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6">
-        <v>20180115</v>
+        <v>20180122</v>
       </c>
       <c r="F5" s="6">
-        <v>20180119</v>
+        <v>20180126</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="34.5" spans="1:8">
@@ -1367,49 +1380,45 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6">
-        <v>20180115</v>
+        <v>20180122</v>
       </c>
       <c r="F6" s="6">
-        <v>20180119</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>20180126</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="34.5" spans="1:8">
-      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="6">
-        <v>20180115</v>
+        <v>20180122</v>
       </c>
       <c r="F7" s="6">
-        <v>20180119</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>20180126</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1418,36 +1427,46 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="51.75" spans="1:8">
+    <row r="10" ht="34.5" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1455,75 +1474,75 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6">
-        <v>20180115</v>
+        <v>20180122</v>
       </c>
       <c r="F10" s="6">
-        <v>20180119</v>
+        <v>20180126</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" ht="34.5" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6">
-        <v>20180115</v>
+        <v>20180122</v>
       </c>
       <c r="F11" s="6">
-        <v>20180119</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>26</v>
+        <v>20180126</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="34.5" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="6">
         <v>20180122</v>
       </c>
       <c r="F12" s="6">
         <v>20180126</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:8">
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="51.75" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1542,22 +1561,24 @@
       <c r="F13" s="6">
         <v>20180126</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" ht="51.75" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="6">
@@ -1566,22 +1587,17 @@
       <c r="F14" s="6">
         <v>20180126</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" ht="34.5" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="G14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" ht="17.25" spans="2:8">
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1592,17 +1608,22 @@
       <c r="F15" s="6">
         <v>20180126</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" ht="17.25" spans="2:8">
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1613,37 +1634,11 @@
       <c r="F16" s="6">
         <v>20180126</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>37</v>
+      <c r="G16" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" ht="34.5" customHeight="1" spans="1:8">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
-        <v>20180122</v>
-      </c>
-      <c r="F17" s="6">
-        <v>20180126</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -64,6 +64,12 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t>直播实时数据计算平台的logstash索引文档</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -84,6 +90,10 @@
   </si>
   <si>
     <t>王琪</t>
+  </si>
+  <si>
+    <t>1联调一级搜索
+2解决线上bug(内容，搜索)</t>
   </si>
   <si>
     <t>罗健</t>
@@ -125,9 +135,6 @@
 后台管理系统配置活动操作说明文档</t>
   </si>
   <si>
-    <t>代码，文档</t>
-  </si>
-  <si>
     <t>袁常鑫</t>
   </si>
   <si>
@@ -149,18 +156,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1联调一级搜索
-2解决线上bug(内容，搜索)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +180,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -180,54 +187,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,12 +374,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,18 +599,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,19 +897,60 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -628,487 +1241,492 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" activeCellId="1" sqref="H6 H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180122</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180126</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180122</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180126</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180122</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180126</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="51.75" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" ht="17.25" spans="2:8">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="16" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E16" s="6">
         <v>20180122</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F16" s="6">
         <v>20180126</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
+++ b/2018周报/20180126周报/技术支撑服务人员周报日报-20180126.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>项目名称</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>罗健</t>
+  </si>
+  <si>
+    <t>MIGU3.0技术架构规范研究输出（日志收集工具选型2-Flume）</t>
+  </si>
+  <si>
+    <t>文档&amp;代码</t>
   </si>
   <si>
     <t>陈平</t>
@@ -156,21 +162,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>文档&amp;代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIGU3.0技术架构规范研究输出（日志收集工具选型2-Flume）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,25 +215,156 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,12 +373,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,18 +598,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,19 +896,60 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -630,495 +1240,498 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180122</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180126</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180122</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180126</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20180122</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20180126</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20180122</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20180126</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20180122</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20180126</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20180122</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20180126</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="34.5" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20180122</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20180126</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="51.75" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="34.5" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="2:8">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20180122</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20180126</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20180122</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20180126</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>